--- a/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyCommon.xlsx
+++ b/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyCommon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计支宝\project\java1202\COM.JZB.PROJECT\COM.JZB.ORGANIZE.MODULE\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4890F-8C00-494B-957C-9A10427AD26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C78F450-753B-4CCD-A31A-7DD1E790E575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>手机号码</t>
+    <t>手机号码（必填）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -478,23 +478,24 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="30.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">

--- a/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyCommon.xlsx
+++ b/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/ImportCompanyCommon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计支宝\project\java1202\COM.JZB.PROJECT\COM.JZB.ORGANIZE.MODULE\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C78F450-753B-4CCD-A31A-7DD1E790E575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7667C81-8F7F-4F64-81A1-16F484DFF141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>手机号码（必填）</t>
+    <t>手机号码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,11 +491,11 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
